--- a/Code/Results/Cases/Case_2_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9002244728643234</v>
+        <v>0.4664733213809029</v>
       </c>
       <c r="C2">
-        <v>0.3042566595134986</v>
+        <v>0.1613733740226451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3641864597580948</v>
+        <v>0.2632282980981913</v>
       </c>
       <c r="F2">
-        <v>3.171927124880114</v>
+        <v>3.332242289215031</v>
       </c>
       <c r="G2">
-        <v>0.000833133281592513</v>
+        <v>0.002530114545696351</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.287155861991238</v>
+        <v>1.435168256707577</v>
       </c>
       <c r="J2">
-        <v>0.1371671378027415</v>
+        <v>0.1486094087404908</v>
       </c>
       <c r="K2">
-        <v>1.192463253196649</v>
+        <v>0.623371105489241</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7786088810834144</v>
+        <v>0.4364923331386592</v>
       </c>
       <c r="C3">
-        <v>0.2642299105562245</v>
+        <v>0.1515352513802952</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3142306713022904</v>
+        <v>0.2540395114709852</v>
       </c>
       <c r="F3">
-        <v>2.871692439923919</v>
+        <v>3.272966288887346</v>
       </c>
       <c r="G3">
-        <v>0.0008401701432543672</v>
+        <v>0.002534241460077589</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.21948370891608</v>
+        <v>1.420343033369939</v>
       </c>
       <c r="J3">
-        <v>0.1287408223625022</v>
+        <v>0.1467668614985769</v>
       </c>
       <c r="K3">
-        <v>1.03203281282947</v>
+        <v>0.5839119523902241</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7049158754002463</v>
+        <v>0.418386975326257</v>
       </c>
       <c r="C4">
-        <v>0.2401507180869089</v>
+        <v>0.145595935172679</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2840393215505514</v>
+        <v>0.2486065196619478</v>
       </c>
       <c r="F4">
-        <v>2.692844985384596</v>
+        <v>3.238296300987628</v>
       </c>
       <c r="G4">
-        <v>0.0008446036892132344</v>
+        <v>0.00253690647417132</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.179835754957644</v>
+        <v>1.4117461633018</v>
       </c>
       <c r="J4">
-        <v>0.1237916573424371</v>
+        <v>0.1456944492769878</v>
       </c>
       <c r="K4">
-        <v>0.9350178534349709</v>
+        <v>0.5600852147518651</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6750985104541201</v>
+        <v>0.4110850778917552</v>
       </c>
       <c r="C5">
-        <v>0.2304477607465429</v>
+        <v>0.1432008934074531</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2718407011500759</v>
+        <v>0.2464450019855136</v>
       </c>
       <c r="F5">
-        <v>2.621213020299123</v>
+        <v>3.224600290351589</v>
       </c>
       <c r="G5">
-        <v>0.0008464399999003659</v>
+        <v>0.002538025558632251</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.164117538597175</v>
+        <v>1.408369321945777</v>
       </c>
       <c r="J5">
-        <v>0.1218263635990766</v>
+        <v>0.1452721564031734</v>
       </c>
       <c r="K5">
-        <v>0.895809264903221</v>
+        <v>0.5504762832931931</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6701593119243228</v>
+        <v>0.4098772039451148</v>
       </c>
       <c r="C6">
-        <v>0.228842774530932</v>
+        <v>0.1428047193951869</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2698209903453943</v>
+        <v>0.2460892506744301</v>
       </c>
       <c r="F6">
-        <v>2.609390388517227</v>
+        <v>3.222352139521689</v>
       </c>
       <c r="G6">
-        <v>0.0008467467398659972</v>
+        <v>0.00253821338250737</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.161532923032347</v>
+        <v>1.407816215414385</v>
       </c>
       <c r="J6">
-        <v>0.1215030026824522</v>
+        <v>0.1452029215921584</v>
       </c>
       <c r="K6">
-        <v>0.8893170294483923</v>
+        <v>0.548886799595266</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.704512926972825</v>
+        <v>0.418288190958549</v>
       </c>
       <c r="C7">
-        <v>0.2400194368851203</v>
+        <v>0.1455635327192368</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2838744039992065</v>
+        <v>0.2485771563208985</v>
       </c>
       <c r="F7">
-        <v>2.691874039050077</v>
+        <v>3.238109843673271</v>
       </c>
       <c r="G7">
-        <v>0.0008446283329052966</v>
+        <v>0.002536921432320737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.179622048119981</v>
+        <v>1.411700111044297</v>
       </c>
       <c r="J7">
-        <v>0.1237649503303189</v>
+        <v>0.1456886945919749</v>
       </c>
       <c r="K7">
-        <v>0.9344878153843013</v>
+        <v>0.5599552181244007</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8580673099813509</v>
+        <v>0.4560729379312818</v>
       </c>
       <c r="C8">
-        <v>0.2903424254106142</v>
+        <v>0.1579600321856276</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3468513120703562</v>
+        <v>0.2600165846105611</v>
       </c>
       <c r="F8">
-        <v>3.067181907319593</v>
+        <v>3.311444726877312</v>
       </c>
       <c r="G8">
-        <v>0.0008355369245983806</v>
+        <v>0.00253151036839494</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.263402569104329</v>
+        <v>1.42995106524809</v>
       </c>
       <c r="J8">
-        <v>0.1342120191890004</v>
+        <v>0.1479618136817749</v>
       </c>
       <c r="K8">
-        <v>1.136806905284459</v>
+        <v>0.6096821156739622</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.168612773299287</v>
+        <v>0.5325799802582765</v>
       </c>
       <c r="C9">
-        <v>0.3937488568479921</v>
+        <v>0.18308415500519</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4750021430119915</v>
+        <v>0.2841125425639959</v>
       </c>
       <c r="F9">
-        <v>3.853379573161192</v>
+        <v>3.469032984882006</v>
       </c>
       <c r="G9">
-        <v>0.0008185442151774284</v>
+        <v>0.002521934229289004</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.444766811059395</v>
+        <v>1.469791599789431</v>
       </c>
       <c r="J9">
-        <v>0.1567265302236152</v>
+        <v>0.1528913540044883</v>
       </c>
       <c r="K9">
-        <v>1.547813852118026</v>
+        <v>0.7103990764213677</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.405087831109086</v>
+        <v>0.5902756757171232</v>
       </c>
       <c r="C10">
-        <v>0.4738104607100126</v>
+        <v>0.2020562747520671</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5732967133775588</v>
+        <v>0.3028398955767599</v>
       </c>
       <c r="F10">
-        <v>4.471854871570656</v>
+        <v>3.593348484988127</v>
       </c>
       <c r="G10">
-        <v>0.0008064764353637887</v>
+        <v>0.002515522460799113</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.591462724905</v>
+        <v>1.501586024072878</v>
       </c>
       <c r="J10">
-        <v>0.1748841723075927</v>
+        <v>0.1568074444625296</v>
       </c>
       <c r="K10">
-        <v>1.862263855540135</v>
+        <v>0.7863825934459783</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.515126125694621</v>
+        <v>0.6168496362557221</v>
       </c>
       <c r="C11">
-        <v>0.5114299820973542</v>
+        <v>0.2108024600332215</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6192502759899412</v>
+        <v>0.3115842618034037</v>
       </c>
       <c r="F11">
-        <v>4.764698262581248</v>
+        <v>3.651786706073892</v>
       </c>
       <c r="G11">
-        <v>0.0008010536979395856</v>
+        <v>0.002512739520663455</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.661888818927721</v>
+        <v>1.516610030021511</v>
       </c>
       <c r="J11">
-        <v>0.1835922051258265</v>
+        <v>0.1586543529820261</v>
       </c>
       <c r="K11">
-        <v>2.008991328739029</v>
+        <v>0.8213890046983465</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.557210996183102</v>
+        <v>0.6269598520048874</v>
       </c>
       <c r="C12">
-        <v>0.5258775000261551</v>
+        <v>0.2141313145436925</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6368622882480963</v>
+        <v>0.3149280666228975</v>
       </c>
       <c r="F12">
-        <v>4.877492296715502</v>
+        <v>3.674189189652424</v>
       </c>
       <c r="G12">
-        <v>0.0007990076902156103</v>
+        <v>0.002511704819077146</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.689161534744585</v>
+        <v>1.522380727129189</v>
       </c>
       <c r="J12">
-        <v>0.1869633468927177</v>
+        <v>0.1593632513142254</v>
       </c>
       <c r="K12">
-        <v>2.065174343218217</v>
+        <v>0.8347089474817722</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.548127718279318</v>
+        <v>0.6247803340064593</v>
       </c>
       <c r="C13">
-        <v>0.5227564841943035</v>
+        <v>0.2134136324308429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6330593088622294</v>
+        <v>0.3142064708620893</v>
       </c>
       <c r="F13">
-        <v>4.853111279208633</v>
+        <v>3.669352232533384</v>
       </c>
       <c r="G13">
-        <v>0.000799448039798402</v>
+        <v>0.002511926811018703</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.683259756042418</v>
+        <v>1.521134269392533</v>
       </c>
       <c r="J13">
-        <v>0.1862338795784808</v>
+        <v>0.1592101526140368</v>
       </c>
       <c r="K13">
-        <v>2.053045159694449</v>
+        <v>0.8318374175204326</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.518579762922343</v>
+        <v>0.6176804626526575</v>
       </c>
       <c r="C14">
-        <v>0.5126143615900389</v>
+        <v>0.2110759875869235</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6206948100683007</v>
+        <v>0.3118587065170431</v>
       </c>
       <c r="F14">
-        <v>4.7739382766608</v>
+        <v>3.653624285485165</v>
       </c>
       <c r="G14">
-        <v>0.0008008852353447171</v>
+        <v>0.002512654012026231</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.664120010720467</v>
+        <v>1.517083151997412</v>
       </c>
       <c r="J14">
-        <v>0.1838680193649225</v>
+        <v>0.158712483215119</v>
       </c>
       <c r="K14">
-        <v>2.013600542328021</v>
+        <v>0.8224835642714083</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.500536878378824</v>
+        <v>0.6133377402631481</v>
       </c>
       <c r="C15">
-        <v>0.5064292376259516</v>
+        <v>0.2096463157025426</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.613149627707358</v>
+        <v>0.3104248696012206</v>
       </c>
       <c r="F15">
-        <v>4.72569791219621</v>
+        <v>3.644026099700199</v>
       </c>
       <c r="G15">
-        <v>0.0008017664628210965</v>
+        <v>0.00251310193308856</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.652477316775787</v>
+        <v>1.514612354976236</v>
       </c>
       <c r="J15">
-        <v>0.1824287379354601</v>
+        <v>0.1584088883743462</v>
       </c>
       <c r="K15">
-        <v>1.989523273223682</v>
+        <v>0.8167623747414154</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.397951242725213</v>
+        <v>0.5885456098644966</v>
       </c>
       <c r="C16">
-        <v>0.471378495169148</v>
+        <v>0.2014870382213303</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5703211301257411</v>
+        <v>0.302272972341477</v>
       </c>
       <c r="F16">
-        <v>4.452968664737597</v>
+        <v>3.589567534489817</v>
       </c>
       <c r="G16">
-        <v>0.0008068319921096626</v>
+        <v>0.002515707016294048</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.58694056070604</v>
+        <v>1.500615520280064</v>
       </c>
       <c r="J16">
-        <v>0.1743248563044659</v>
+        <v>0.1566880704952922</v>
       </c>
       <c r="K16">
-        <v>1.852756499380092</v>
+        <v>0.7841037476143526</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.335690919096663</v>
+        <v>0.5734204790359172</v>
       </c>
       <c r="C17">
-        <v>0.4502029036366082</v>
+        <v>0.1965113751757599</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5443861813348718</v>
+        <v>0.297329809364598</v>
       </c>
       <c r="F17">
-        <v>4.288769237564054</v>
+        <v>3.556643502128395</v>
       </c>
       <c r="G17">
-        <v>0.0008099552171079486</v>
+        <v>0.002517339347385274</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.547730977123152</v>
+        <v>1.492173074590227</v>
       </c>
       <c r="J17">
-        <v>0.1694743223285968</v>
+        <v>0.1556492420196278</v>
       </c>
       <c r="K17">
-        <v>1.76985904038068</v>
+        <v>0.7641819596519213</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.300108328876121</v>
+        <v>0.5647517617370283</v>
       </c>
       <c r="C18">
-        <v>0.4381341659320128</v>
+        <v>0.1936603790897777</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5295835291968203</v>
+        <v>0.2945078220131165</v>
       </c>
       <c r="F18">
-        <v>4.19539162166501</v>
+        <v>3.53788391712493</v>
       </c>
       <c r="G18">
-        <v>0.0008117580590566015</v>
+        <v>0.00251829082161776</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.525521466931181</v>
+        <v>1.487369916582111</v>
       </c>
       <c r="J18">
-        <v>0.1667259835453336</v>
+        <v>0.1550578906228708</v>
       </c>
       <c r="K18">
-        <v>1.722519182521495</v>
+        <v>0.7527649740262916</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.288098065277808</v>
+        <v>0.561821980542959</v>
       </c>
       <c r="C19">
-        <v>0.4340661092934113</v>
+        <v>0.1926969414065809</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5245903465345521</v>
+        <v>0.2935559813235642</v>
       </c>
       <c r="F19">
-        <v>4.163951518844215</v>
+        <v>3.531562662512442</v>
       </c>
       <c r="G19">
-        <v>0.0008123696392460331</v>
+        <v>0.002518615141616238</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.518058505906822</v>
+        <v>1.485752678325426</v>
       </c>
       <c r="J19">
-        <v>0.1658023195634186</v>
+        <v>0.154858723298446</v>
       </c>
       <c r="K19">
-        <v>1.706546617591869</v>
+        <v>0.7489064963361614</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.342294628685949</v>
+        <v>0.5750273807967403</v>
       </c>
       <c r="C20">
-        <v>0.4524454021971565</v>
+        <v>0.1970399159563669</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5471349361425126</v>
+        <v>0.2978538236502146</v>
       </c>
       <c r="F20">
-        <v>4.306136569544122</v>
+        <v>3.560129942615163</v>
       </c>
       <c r="G20">
-        <v>0.0008096220921948048</v>
+        <v>0.002517164279440665</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.551868925298365</v>
+        <v>1.493066325764389</v>
       </c>
       <c r="J20">
-        <v>0.1699863057239241</v>
+        <v>0.1557591893044474</v>
       </c>
       <c r="K20">
-        <v>1.778647744883699</v>
+        <v>0.766298370481735</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.527246904112928</v>
+        <v>0.6197645843618318</v>
       </c>
       <c r="C21">
-        <v>0.5155876186203159</v>
+        <v>0.2117621510069796</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6243205745096532</v>
+        <v>0.3125474187022803</v>
       </c>
       <c r="F21">
-        <v>4.797139598422746</v>
+        <v>3.65823653482056</v>
       </c>
       <c r="G21">
-        <v>0.0008004629120800809</v>
+        <v>0.002512439896845411</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.669724804909634</v>
+        <v>1.51827084675395</v>
       </c>
       <c r="J21">
-        <v>0.1845608536547374</v>
+        <v>0.1588584017607744</v>
       </c>
       <c r="K21">
-        <v>2.025168761623291</v>
+        <v>0.8252292841059159</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.65058131617468</v>
+        <v>0.6492782919654019</v>
       </c>
       <c r="C22">
-        <v>0.5580475263513165</v>
+        <v>0.2214823881169536</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6760104143749999</v>
+        <v>0.3223400459923624</v>
       </c>
       <c r="F22">
-        <v>5.129254724875722</v>
+        <v>3.72394817933349</v>
       </c>
       <c r="G22">
-        <v>0.0007945191776539649</v>
+        <v>0.002509463740650441</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.750310701649482</v>
+        <v>1.535218491101404</v>
       </c>
       <c r="J22">
-        <v>0.1945202635212269</v>
+        <v>0.1609394193676437</v>
       </c>
       <c r="K22">
-        <v>2.189951895206718</v>
+        <v>0.864115937400129</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584508291790087</v>
+        <v>0.6335010456939187</v>
       </c>
       <c r="C23">
-        <v>0.5352660140630405</v>
+        <v>0.216285433521989</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6482968772655937</v>
+        <v>0.3170961546404953</v>
       </c>
       <c r="F23">
-        <v>4.950882231468427</v>
+        <v>3.688730207218072</v>
       </c>
       <c r="G23">
-        <v>0.0007976883712987704</v>
+        <v>0.002511042002851171</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.706948315254465</v>
+        <v>1.526129475970507</v>
       </c>
       <c r="J23">
-        <v>0.1891616823293347</v>
+        <v>0.159823629006226</v>
       </c>
       <c r="K23">
-        <v>2.101635401935454</v>
+        <v>0.8433272542891643</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.339308436726554</v>
+        <v>0.574300816659246</v>
       </c>
       <c r="C24">
-        <v>0.4514312424988134</v>
+        <v>0.1968009328509766</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5458918910276438</v>
+        <v>0.2976168548076572</v>
       </c>
       <c r="F24">
-        <v>4.298281631206237</v>
+        <v>3.558553196967353</v>
       </c>
       <c r="G24">
-        <v>0.0008097726751976962</v>
+        <v>0.002517243387161994</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.549997128338418</v>
+        <v>1.492662329612543</v>
       </c>
       <c r="J24">
-        <v>0.1697547131907982</v>
+        <v>0.1557094638153629</v>
       </c>
       <c r="K24">
-        <v>1.774673384708706</v>
+        <v>0.7653414280549384</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.083343710124836</v>
+        <v>0.5116230377313684</v>
       </c>
       <c r="C25">
-        <v>0.3651521164787539</v>
+        <v>0.1761984771389677</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4397100896016966</v>
+        <v>0.27741486535745</v>
       </c>
       <c r="F25">
-        <v>3.634324552004614</v>
+        <v>3.424912149074402</v>
       </c>
       <c r="G25">
-        <v>0.0008230607601447142</v>
+        <v>0.002524414767552026</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.393580288758827</v>
+        <v>1.458574441513704</v>
       </c>
       <c r="J25">
-        <v>0.1503818480037467</v>
+        <v>0.1515065714058892</v>
       </c>
       <c r="K25">
-        <v>1.43473192631572</v>
+        <v>0.6828060998317937</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4664733213809029</v>
+        <v>0.9002244728644939</v>
       </c>
       <c r="C2">
-        <v>0.1613733740226451</v>
+        <v>0.3042566595134986</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2632282980981913</v>
+        <v>0.3641864597581232</v>
       </c>
       <c r="F2">
-        <v>3.332242289215031</v>
+        <v>3.171927124880142</v>
       </c>
       <c r="G2">
-        <v>0.002530114545696351</v>
+        <v>0.0008331332816498734</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.435168256707577</v>
+        <v>1.28715586199128</v>
       </c>
       <c r="J2">
-        <v>0.1486094087404908</v>
+        <v>0.1371671378026278</v>
       </c>
       <c r="K2">
-        <v>0.623371105489241</v>
+        <v>1.192463253196593</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4364923331386592</v>
+        <v>0.7786088810832439</v>
       </c>
       <c r="C3">
-        <v>0.1515352513802952</v>
+        <v>0.2642299105563666</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2540395114709852</v>
+        <v>0.3142306713022833</v>
       </c>
       <c r="F3">
-        <v>3.272966288887346</v>
+        <v>2.871692439923919</v>
       </c>
       <c r="G3">
-        <v>0.002534241460077589</v>
+        <v>0.0008401701432501458</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.420343033369939</v>
+        <v>1.219483708916059</v>
       </c>
       <c r="J3">
-        <v>0.1467668614985769</v>
+        <v>0.1287408223625732</v>
       </c>
       <c r="K3">
-        <v>0.5839119523902241</v>
+        <v>1.032032812829414</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.418386975326257</v>
+        <v>0.7049158754003031</v>
       </c>
       <c r="C4">
-        <v>0.145595935172679</v>
+        <v>0.2401507180870794</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2486065196619478</v>
+        <v>0.2840393215505514</v>
       </c>
       <c r="F4">
-        <v>3.238296300987628</v>
+        <v>2.692844985384568</v>
       </c>
       <c r="G4">
-        <v>0.00253690647417132</v>
+        <v>0.0008446036892146416</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.4117461633018</v>
+        <v>1.179835754957658</v>
       </c>
       <c r="J4">
-        <v>0.1456944492769878</v>
+        <v>0.1237916573424584</v>
       </c>
       <c r="K4">
-        <v>0.5600852147518651</v>
+        <v>0.9350178534349141</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4110850778917552</v>
+        <v>0.6750985104542053</v>
       </c>
       <c r="C5">
-        <v>0.1432008934074531</v>
+        <v>0.2304477607463866</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2464450019855136</v>
+        <v>0.2718407011500616</v>
       </c>
       <c r="F5">
-        <v>3.224600290351589</v>
+        <v>2.621213020299137</v>
       </c>
       <c r="G5">
-        <v>0.002538025558632251</v>
+        <v>0.0008464399998110826</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.408369321945777</v>
+        <v>1.164117538597175</v>
       </c>
       <c r="J5">
-        <v>0.1452721564031734</v>
+        <v>0.1218263635991335</v>
       </c>
       <c r="K5">
-        <v>0.5504762832931931</v>
+        <v>0.8958092649032778</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4098772039451148</v>
+        <v>0.6701593119243228</v>
       </c>
       <c r="C6">
-        <v>0.1428047193951869</v>
+        <v>0.2288427745309036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2460892506744301</v>
+        <v>0.2698209903453304</v>
       </c>
       <c r="F6">
-        <v>3.222352139521689</v>
+        <v>2.609390388517227</v>
       </c>
       <c r="G6">
-        <v>0.00253821338250737</v>
+        <v>0.00084674673996451</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.407816215414385</v>
+        <v>1.161532923032318</v>
       </c>
       <c r="J6">
-        <v>0.1452029215921584</v>
+        <v>0.1215030026825374</v>
       </c>
       <c r="K6">
-        <v>0.548886799595266</v>
+        <v>0.8893170294483355</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.418288190958549</v>
+        <v>0.7045129269728818</v>
       </c>
       <c r="C7">
-        <v>0.1455635327192368</v>
+        <v>0.2400194368851203</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2485771563208985</v>
+        <v>0.2838744039992704</v>
       </c>
       <c r="F7">
-        <v>3.238109843673271</v>
+        <v>2.69187403905012</v>
       </c>
       <c r="G7">
-        <v>0.002536921432320737</v>
+        <v>0.0008446283329015536</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.411700111044297</v>
+        <v>1.179622048120038</v>
       </c>
       <c r="J7">
-        <v>0.1456886945919749</v>
+        <v>0.1237649503303189</v>
       </c>
       <c r="K7">
-        <v>0.5599552181244007</v>
+        <v>0.9344878153841591</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4560729379312818</v>
+        <v>0.8580673099814646</v>
       </c>
       <c r="C8">
-        <v>0.1579600321856276</v>
+        <v>0.2903424254106994</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2600165846105611</v>
+        <v>0.3468513120703278</v>
       </c>
       <c r="F8">
-        <v>3.311444726877312</v>
+        <v>3.067181907319593</v>
       </c>
       <c r="G8">
-        <v>0.00253151036839494</v>
+        <v>0.0008355369245437657</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.42995106524809</v>
+        <v>1.263402569104329</v>
       </c>
       <c r="J8">
-        <v>0.1479618136817749</v>
+        <v>0.1342120191889578</v>
       </c>
       <c r="K8">
-        <v>0.6096821156739622</v>
+        <v>1.136806905284459</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5325799802582765</v>
+        <v>1.168612773299429</v>
       </c>
       <c r="C9">
-        <v>0.18308415500519</v>
+        <v>0.3937488568477931</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2841125425639959</v>
+        <v>0.4750021430120697</v>
       </c>
       <c r="F9">
-        <v>3.469032984882006</v>
+        <v>3.85337957316122</v>
       </c>
       <c r="G9">
-        <v>0.002521934229289004</v>
+        <v>0.0008185442151192617</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.469791599789431</v>
+        <v>1.444766811059395</v>
       </c>
       <c r="J9">
-        <v>0.1528913540044883</v>
+        <v>0.1567265302237359</v>
       </c>
       <c r="K9">
-        <v>0.7103990764213677</v>
+        <v>1.547813852118082</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5902756757171232</v>
+        <v>1.405087831109086</v>
       </c>
       <c r="C10">
-        <v>0.2020562747520671</v>
+        <v>0.4738104607102116</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3028398955767599</v>
+        <v>0.5732967133775517</v>
       </c>
       <c r="F10">
-        <v>3.593348484988127</v>
+        <v>4.471854871570685</v>
       </c>
       <c r="G10">
-        <v>0.002515522460799113</v>
+        <v>0.0008064764353586585</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.501586024072878</v>
+        <v>1.591462724905</v>
       </c>
       <c r="J10">
-        <v>0.1568074444625296</v>
+        <v>0.1748841723076282</v>
       </c>
       <c r="K10">
-        <v>0.7863825934459783</v>
+        <v>1.862263855540078</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6168496362557221</v>
+        <v>1.515126125694621</v>
       </c>
       <c r="C11">
-        <v>0.2108024600332215</v>
+        <v>0.5114299820970984</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3115842618034037</v>
+        <v>0.6192502759899412</v>
       </c>
       <c r="F11">
-        <v>3.651786706073892</v>
+        <v>4.76469826258122</v>
       </c>
       <c r="G11">
-        <v>0.002512739520663455</v>
+        <v>0.0008010536978254932</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.516610030021511</v>
+        <v>1.66188881892775</v>
       </c>
       <c r="J11">
-        <v>0.1586543529820261</v>
+        <v>0.1835922051257342</v>
       </c>
       <c r="K11">
-        <v>0.8213890046983465</v>
+        <v>2.008991328738972</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6269598520048874</v>
+        <v>1.557210996183073</v>
       </c>
       <c r="C12">
-        <v>0.2141313145436925</v>
+        <v>0.5258775000258993</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3149280666228975</v>
+        <v>0.6368622882480537</v>
       </c>
       <c r="F12">
-        <v>3.674189189652424</v>
+        <v>4.877492296715502</v>
       </c>
       <c r="G12">
-        <v>0.002511704819077146</v>
+        <v>0.0007990076902121415</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.522380727129189</v>
+        <v>1.689161534744613</v>
       </c>
       <c r="J12">
-        <v>0.1593632513142254</v>
+        <v>0.1869633468927177</v>
       </c>
       <c r="K12">
-        <v>0.8347089474817722</v>
+        <v>2.065174343218274</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6247803340064593</v>
+        <v>1.548127718279346</v>
       </c>
       <c r="C13">
-        <v>0.2134136324308429</v>
+        <v>0.5227564841938204</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3142064708620893</v>
+        <v>0.6330593088621725</v>
       </c>
       <c r="F13">
-        <v>3.669352232533384</v>
+        <v>4.853111279208633</v>
       </c>
       <c r="G13">
-        <v>0.002511926811018703</v>
+        <v>0.0007994480397924582</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.521134269392533</v>
+        <v>1.683259756042432</v>
       </c>
       <c r="J13">
-        <v>0.1592101526140368</v>
+        <v>0.1862338795785519</v>
       </c>
       <c r="K13">
-        <v>0.8318374175204326</v>
+        <v>2.053045159694392</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6176804626526575</v>
+        <v>1.518579762922201</v>
       </c>
       <c r="C14">
-        <v>0.2110759875869235</v>
+        <v>0.5126143615900958</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3118587065170431</v>
+        <v>0.620694810068315</v>
       </c>
       <c r="F14">
-        <v>3.653624285485165</v>
+        <v>4.773938276660772</v>
       </c>
       <c r="G14">
-        <v>0.002512654012026231</v>
+        <v>0.0008008852352844775</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.517083151997412</v>
+        <v>1.664120010720495</v>
       </c>
       <c r="J14">
-        <v>0.158712483215119</v>
+        <v>0.1838680193647804</v>
       </c>
       <c r="K14">
-        <v>0.8224835642714083</v>
+        <v>2.013600542327936</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6133377402631481</v>
+        <v>1.500536878378881</v>
       </c>
       <c r="C15">
-        <v>0.2096463157025426</v>
+        <v>0.5064292376254116</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3104248696012206</v>
+        <v>0.6131496277073296</v>
       </c>
       <c r="F15">
-        <v>3.644026099700199</v>
+        <v>4.72569791219621</v>
       </c>
       <c r="G15">
-        <v>0.00251310193308856</v>
+        <v>0.000801766462755102</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.514612354976236</v>
+        <v>1.652477316775816</v>
       </c>
       <c r="J15">
-        <v>0.1584088883743462</v>
+        <v>0.1824287379355525</v>
       </c>
       <c r="K15">
-        <v>0.8167623747414154</v>
+        <v>1.989523273223824</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5885456098644966</v>
+        <v>1.3979512427251</v>
       </c>
       <c r="C16">
-        <v>0.2014870382213303</v>
+        <v>0.4713784951688638</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.302272972341477</v>
+        <v>0.5703211301257554</v>
       </c>
       <c r="F16">
-        <v>3.589567534489817</v>
+        <v>4.452968664737597</v>
       </c>
       <c r="G16">
-        <v>0.002515707016294048</v>
+        <v>0.0008068319921085333</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.500615520280064</v>
+        <v>1.58694056070604</v>
       </c>
       <c r="J16">
-        <v>0.1566880704952922</v>
+        <v>0.1743248563044375</v>
       </c>
       <c r="K16">
-        <v>0.7841037476143526</v>
+        <v>1.852756499380064</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5734204790359172</v>
+        <v>1.335690919096578</v>
       </c>
       <c r="C17">
-        <v>0.1965113751757599</v>
+        <v>0.4502029036368356</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.297329809364598</v>
+        <v>0.5443861813348718</v>
       </c>
       <c r="F17">
-        <v>3.556643502128395</v>
+        <v>4.288769237564026</v>
       </c>
       <c r="G17">
-        <v>0.002517339347385274</v>
+        <v>0.0008099552171070573</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.492173074590227</v>
+        <v>1.547730977123152</v>
       </c>
       <c r="J17">
-        <v>0.1556492420196278</v>
+        <v>0.1694743223284689</v>
       </c>
       <c r="K17">
-        <v>0.7641819596519213</v>
+        <v>1.769859040380624</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5647517617370283</v>
+        <v>1.300108328876149</v>
       </c>
       <c r="C18">
-        <v>0.1936603790897777</v>
+        <v>0.4381341659322118</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2945078220131165</v>
+        <v>0.5295835291968558</v>
       </c>
       <c r="F18">
-        <v>3.53788391712493</v>
+        <v>4.195391621665038</v>
       </c>
       <c r="G18">
-        <v>0.00251829082161776</v>
+        <v>0.0008117580588888047</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.487369916582111</v>
+        <v>1.525521466931181</v>
       </c>
       <c r="J18">
-        <v>0.1550578906228708</v>
+        <v>0.1667259835454473</v>
       </c>
       <c r="K18">
-        <v>0.7527649740262916</v>
+        <v>1.722519182521552</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.561821980542959</v>
+        <v>1.288098065277836</v>
       </c>
       <c r="C19">
-        <v>0.1926969414065809</v>
+        <v>0.4340661092931555</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2935559813235642</v>
+        <v>0.5245903465345165</v>
       </c>
       <c r="F19">
-        <v>3.531562662512442</v>
+        <v>4.163951518844215</v>
       </c>
       <c r="G19">
-        <v>0.002518615141616238</v>
+        <v>0.0008123696392380395</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.485752678325426</v>
+        <v>1.518058505906836</v>
       </c>
       <c r="J19">
-        <v>0.154858723298446</v>
+        <v>0.1658023195636034</v>
       </c>
       <c r="K19">
-        <v>0.7489064963361614</v>
+        <v>1.706546617591783</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5750273807967403</v>
+        <v>1.342294628686062</v>
       </c>
       <c r="C20">
-        <v>0.1970399159563669</v>
+        <v>0.4524454021973838</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2978538236502146</v>
+        <v>0.5471349361425908</v>
       </c>
       <c r="F20">
-        <v>3.560129942615163</v>
+        <v>4.306136569544122</v>
       </c>
       <c r="G20">
-        <v>0.002517164279440665</v>
+        <v>0.0008096220922482871</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.493066325764389</v>
+        <v>1.551868925298336</v>
       </c>
       <c r="J20">
-        <v>0.1557591893044474</v>
+        <v>0.1699863057238744</v>
       </c>
       <c r="K20">
-        <v>0.766298370481735</v>
+        <v>1.778647744883756</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6197645843618318</v>
+        <v>1.527246904113014</v>
       </c>
       <c r="C21">
-        <v>0.2117621510069796</v>
+        <v>0.5155876186203159</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3125474187022803</v>
+        <v>0.6243205745096532</v>
       </c>
       <c r="F21">
-        <v>3.65823653482056</v>
+        <v>4.797139598422888</v>
       </c>
       <c r="G21">
-        <v>0.002512439896845411</v>
+        <v>0.0008004629120123008</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.51827084675395</v>
+        <v>1.669724804909649</v>
       </c>
       <c r="J21">
-        <v>0.1588584017607744</v>
+        <v>0.1845608536546592</v>
       </c>
       <c r="K21">
-        <v>0.8252292841059159</v>
+        <v>2.025168761623405</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6492782919654019</v>
+        <v>1.650581316174765</v>
       </c>
       <c r="C22">
-        <v>0.2214823881169536</v>
+        <v>0.5580475263512881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3223400459923624</v>
+        <v>0.6760104143749999</v>
       </c>
       <c r="F22">
-        <v>3.72394817933349</v>
+        <v>5.12925472487575</v>
       </c>
       <c r="G22">
-        <v>0.002509463740650441</v>
+        <v>0.0007945191776460773</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.535218491101404</v>
+        <v>1.750310701649497</v>
       </c>
       <c r="J22">
-        <v>0.1609394193676437</v>
+        <v>0.1945202635214898</v>
       </c>
       <c r="K22">
-        <v>0.864115937400129</v>
+        <v>2.189951895206661</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6335010456939187</v>
+        <v>1.584508291790087</v>
       </c>
       <c r="C23">
-        <v>0.216285433521989</v>
+        <v>0.5352660140632395</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3170961546404953</v>
+        <v>0.6482968772655795</v>
       </c>
       <c r="F23">
-        <v>3.688730207218072</v>
+        <v>4.950882231468398</v>
       </c>
       <c r="G23">
-        <v>0.002511042002851171</v>
+        <v>0.0007976883712395809</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.526129475970507</v>
+        <v>1.706948315254451</v>
       </c>
       <c r="J23">
-        <v>0.159823629006226</v>
+        <v>0.18916168232915</v>
       </c>
       <c r="K23">
-        <v>0.8433272542891643</v>
+        <v>2.101635401935454</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.574300816659246</v>
+        <v>1.339308436726469</v>
       </c>
       <c r="C24">
-        <v>0.1968009328509766</v>
+        <v>0.4514312424990123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2976168548076572</v>
+        <v>0.5458918910277291</v>
       </c>
       <c r="F24">
-        <v>3.558553196967353</v>
+        <v>4.298281631206237</v>
       </c>
       <c r="G24">
-        <v>0.002517243387161994</v>
+        <v>0.0008097726751934612</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.492662329612543</v>
+        <v>1.549997128338418</v>
       </c>
       <c r="J24">
-        <v>0.1557094638153629</v>
+        <v>0.1697547131906774</v>
       </c>
       <c r="K24">
-        <v>0.7653414280549384</v>
+        <v>1.774673384708791</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5116230377313684</v>
+        <v>1.08334371012478</v>
       </c>
       <c r="C25">
-        <v>0.1761984771389677</v>
+        <v>0.365152116478356</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.27741486535745</v>
+        <v>0.4397100896017676</v>
       </c>
       <c r="F25">
-        <v>3.424912149074402</v>
+        <v>3.634324552004671</v>
       </c>
       <c r="G25">
-        <v>0.002524414767552026</v>
+        <v>0.0008230607603118882</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.458574441513704</v>
+        <v>1.393580288758841</v>
       </c>
       <c r="J25">
-        <v>0.1515065714058892</v>
+        <v>0.1503818480036117</v>
       </c>
       <c r="K25">
-        <v>0.6828060998317937</v>
+        <v>1.434731926315806</v>
       </c>
       <c r="L25">
         <v>0</v>
